--- a/final_optimized.xlsx
+++ b/final_optimized.xlsx
@@ -55,946 +55,946 @@
     <t>Om ni svarade "övrigt" på förra frågan, ange VILKEN MEDLEM och vad för allergi</t>
   </si>
   <si>
+    <t>st patrick's day</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Wall Street</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
     <t>Glitter och glamour</t>
   </si>
   <si>
+    <t>M&amp;M</t>
+  </si>
+  <si>
+    <t>Long Island</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Kräftskiva</t>
+  </si>
+  <si>
+    <t>ODZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melodifestivalen/schlager </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinkparty </t>
+  </si>
+  <si>
+    <t>Peaky blinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawaii </t>
+  </si>
+  <si>
+    <t>Tipsy Texas Hold'em</t>
+  </si>
+  <si>
+    <t>Födelsedagskalas</t>
+  </si>
+  <si>
+    <t>White collar crime</t>
+  </si>
+  <si>
     <t>Monte Carlo Casino</t>
   </si>
   <si>
-    <t>Wall Street</t>
+    <t xml:space="preserve">Havanna </t>
+  </si>
+  <si>
+    <t>Suntrip sällskapsresan</t>
+  </si>
+  <si>
+    <t>Murder mystery🔪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurfarna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrek </t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">”Välkommen till klubbhuset” </t>
+  </si>
+  <si>
+    <t>Cup</t>
+  </si>
+  <si>
+    <t>Big Lebowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burning man </t>
+  </si>
+  <si>
+    <t>Rödluvan</t>
+  </si>
+  <si>
+    <t>Solsemester</t>
+  </si>
+  <si>
+    <t>Project X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackout </t>
+  </si>
+  <si>
+    <t>Bald cap</t>
+  </si>
+  <si>
+    <t>FULL MOON PARTY</t>
+  </si>
+  <si>
+    <t>Barnkalas</t>
+  </si>
+  <si>
+    <t>Black out</t>
+  </si>
+  <si>
+    <t>Berghain</t>
+  </si>
+  <si>
+    <t>Fiske</t>
+  </si>
+  <si>
+    <t>Maffia</t>
+  </si>
+  <si>
+    <t>Norrlandstema (kan ändra!)</t>
+  </si>
+  <si>
+    <t>King's Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villa Villekulla </t>
+  </si>
+  <si>
+    <t>Afterski</t>
   </si>
   <si>
     <t>Orientering</t>
   </si>
   <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
-    <t>M&amp;M</t>
-  </si>
-  <si>
-    <t>Norrlandstema (kan ändra!)</t>
-  </si>
-  <si>
-    <t>Bald cap</t>
-  </si>
-  <si>
-    <t>Kräftskiva</t>
-  </si>
-  <si>
-    <t>ODZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melodifestivalen/schlager </t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinkparty </t>
-  </si>
-  <si>
-    <t>Peaky blinder</t>
-  </si>
-  <si>
-    <t>Tipsy Texas Hold'em</t>
-  </si>
-  <si>
-    <t>Big Lebowski</t>
-  </si>
-  <si>
-    <t>Födelsedagskalas</t>
-  </si>
-  <si>
-    <t>Long Island</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Havanna </t>
-  </si>
-  <si>
-    <t>Barnkalas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smurfarna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawaii </t>
-  </si>
-  <si>
-    <t xml:space="preserve">”Välkommen till klubbhuset” </t>
-  </si>
-  <si>
-    <t>Murder mystery🔪</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bananer i pyjamas </t>
   </si>
   <si>
-    <t xml:space="preserve">Burning man </t>
-  </si>
-  <si>
-    <t>Project X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blackout </t>
-  </si>
-  <si>
-    <t>Suntrip sällskapsresan</t>
-  </si>
-  <si>
-    <t>FULL MOON PARTY</t>
-  </si>
-  <si>
-    <t>White collar crime</t>
-  </si>
-  <si>
-    <t>Fiske</t>
-  </si>
-  <si>
-    <t>Berghain</t>
-  </si>
-  <si>
-    <t>Solsemester</t>
-  </si>
-  <si>
-    <t>Cup</t>
-  </si>
-  <si>
-    <t>Maffia</t>
+    <t>Inte bestämt än</t>
+  </si>
+  <si>
+    <t>Skatteverket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Men in black </t>
   </si>
   <si>
     <t>Ryssland</t>
   </si>
   <si>
-    <t>King's Landing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villa Villekulla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shrek </t>
-  </si>
-  <si>
-    <t>Afterski</t>
-  </si>
-  <si>
-    <t>Rödluvan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Men in black </t>
-  </si>
-  <si>
-    <t>Black out</t>
-  </si>
-  <si>
-    <t>Games</t>
-  </si>
-  <si>
-    <t>Inte bestämt än</t>
-  </si>
-  <si>
-    <t>st patrick's day</t>
-  </si>
-  <si>
-    <t>Skatteverket</t>
+    <t>Industriell Ekonomi</t>
   </si>
   <si>
     <t>Jurist</t>
   </si>
   <si>
-    <t>Industriell Ekonomi</t>
-  </si>
-  <si>
     <t>Arkitekt / Design</t>
   </si>
   <si>
+    <t xml:space="preserve">Agnes Forsgren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maja Key </t>
+  </si>
+  <si>
+    <t>Mattias Ridhagen</t>
+  </si>
+  <si>
+    <t>Emilia Hörnfeldt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moa Fredriksson </t>
   </si>
   <si>
+    <t>Sofie Eklund</t>
+  </si>
+  <si>
+    <t>Anna Younan</t>
+  </si>
+  <si>
+    <t>Nora Okembia Jonsson</t>
+  </si>
+  <si>
+    <t>Maria Marttila</t>
+  </si>
+  <si>
+    <t>Mimmie Edlund</t>
+  </si>
+  <si>
+    <t>Elsa Melin</t>
+  </si>
+  <si>
+    <t>Elin Thorin</t>
+  </si>
+  <si>
+    <t>Linus Emanuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Forsberg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa Öhman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karolina Landmark </t>
+  </si>
+  <si>
+    <t>Carl Bergling</t>
+  </si>
+  <si>
     <t>Viktor Sundbom</t>
   </si>
   <si>
-    <t>Mattias Ridhagen</t>
+    <t xml:space="preserve">Erik Månsson </t>
+  </si>
+  <si>
+    <t>Viktor Hällgren</t>
+  </si>
+  <si>
+    <t>Vidar Sjögren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felicia Aronsson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agnes Arvidsson </t>
+  </si>
+  <si>
+    <t>Arvid Ridderstråle</t>
+  </si>
+  <si>
+    <t>Noah Sved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oskar Wisting </t>
+  </si>
+  <si>
+    <t>Anna Mattsson</t>
+  </si>
+  <si>
+    <t>Alicia Nygren</t>
+  </si>
+  <si>
+    <t>Erik Thor</t>
+  </si>
+  <si>
+    <t>Jonas Willerius</t>
+  </si>
+  <si>
+    <t>Marcus Boivie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktor Wallberg </t>
+  </si>
+  <si>
+    <t>Mee-Linn Swartz</t>
+  </si>
+  <si>
+    <t>William Planeskog</t>
+  </si>
+  <si>
+    <t>Hugo Wallgren</t>
+  </si>
+  <si>
+    <t>Axel Söderbaum</t>
+  </si>
+  <si>
+    <t>Alma Lagerström</t>
+  </si>
+  <si>
+    <t>Sam Moeini</t>
+  </si>
+  <si>
+    <t>Estelle Fritiof</t>
+  </si>
+  <si>
+    <t>David Mörnstad</t>
+  </si>
+  <si>
+    <t>Emil fredriksson</t>
+  </si>
+  <si>
+    <t>Efkan Karayel</t>
+  </si>
+  <si>
+    <t>Alice Thorwid</t>
+  </si>
+  <si>
+    <t>Oscar Leppänen</t>
   </si>
   <si>
     <t>Jacob Andersson</t>
   </si>
   <si>
-    <t xml:space="preserve">Maja Key </t>
-  </si>
-  <si>
-    <t>Sofie Eklund</t>
-  </si>
-  <si>
-    <t>David Mörnstad</t>
-  </si>
-  <si>
-    <t>Mee-Linn Swartz</t>
-  </si>
-  <si>
-    <t>Maria Marttila</t>
-  </si>
-  <si>
-    <t>Mimmie Edlund</t>
-  </si>
-  <si>
-    <t>Elsa Melin</t>
-  </si>
-  <si>
-    <t>Arvid Ridderstråle</t>
-  </si>
-  <si>
-    <t>Elin Thorin</t>
-  </si>
-  <si>
-    <t>Linus Emanuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lisa Öhman </t>
-  </si>
-  <si>
-    <t>Anna Mattsson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karolina Landmark </t>
-  </si>
-  <si>
-    <t>Anna Younan</t>
-  </si>
-  <si>
-    <t>Nora Okembia Jonsson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erik Månsson </t>
-  </si>
-  <si>
-    <t>Hugo Wallgren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felicia Aronsson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eric Forsberg </t>
-  </si>
-  <si>
-    <t>Noah Sved</t>
-  </si>
-  <si>
-    <t>Vidar Sjögren</t>
-  </si>
-  <si>
     <t>Alva Wallin</t>
   </si>
   <si>
-    <t>Alicia Nygren</t>
-  </si>
-  <si>
-    <t>Emil fredriksson</t>
-  </si>
-  <si>
-    <t>Marcus Boivie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viktor Wallberg </t>
-  </si>
-  <si>
-    <t>Viktor Hällgren</t>
-  </si>
-  <si>
-    <t>William Planeskog</t>
-  </si>
-  <si>
-    <t>Carl Bergling</t>
-  </si>
-  <si>
-    <t>Sam Moeini</t>
-  </si>
-  <si>
-    <t>Alma Lagerström</t>
-  </si>
-  <si>
-    <t>Jonas Willerius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oskar Wisting </t>
-  </si>
-  <si>
-    <t>Estelle Fritiof</t>
+    <t>Ella Wallmark</t>
+  </si>
+  <si>
+    <t>Joakim Von Anka (ogge)</t>
+  </si>
+  <si>
+    <t>Ebba Olsson</t>
   </si>
   <si>
     <t>Linus Burström</t>
   </si>
   <si>
-    <t>Efkan Karayel</t>
-  </si>
-  <si>
-    <t>Alice Thorwid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agnes Arvidsson </t>
-  </si>
-  <si>
-    <t>Oscar Leppänen</t>
-  </si>
-  <si>
-    <t>Erik Thor</t>
-  </si>
-  <si>
-    <t>Ebba Olsson</t>
-  </si>
-  <si>
-    <t>Axel Söderbaum</t>
-  </si>
-  <si>
-    <t>Emilia Hörnfeldt</t>
-  </si>
-  <si>
-    <t>Ella Wallmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agnes Forsgren </t>
-  </si>
-  <si>
-    <t>Joakim Von Anka (ogge)</t>
+    <t xml:space="preserve">Moa Norsten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilde Hallin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elias Charalambidis </t>
+  </si>
+  <si>
+    <t>Alva Fahlman</t>
   </si>
   <si>
     <t>Hilda Nyqvist</t>
   </si>
   <si>
+    <t xml:space="preserve">Emma Gustafsson </t>
+  </si>
+  <si>
+    <t>Malin Eriksson</t>
+  </si>
+  <si>
+    <t>Hellen Olofsson</t>
+  </si>
+  <si>
+    <t>Sonja Doll</t>
+  </si>
+  <si>
+    <t>Smilla Hellberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bea Wittfeldt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klara Brändström </t>
+  </si>
+  <si>
+    <t>Emil Näslund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Ekblad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Jönsson </t>
+  </si>
+  <si>
+    <t>Fanny Sandberg</t>
+  </si>
+  <si>
+    <t>Michael Evans</t>
+  </si>
+  <si>
     <t>Kristoffer Moström</t>
   </si>
   <si>
-    <t xml:space="preserve">Elias Charalambidis </t>
+    <t>Hedda Ferm</t>
+  </si>
+  <si>
+    <t>Moa Wallberg</t>
+  </si>
+  <si>
+    <t>Jakob Gustafsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ella Aronsson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mette Stenberg Marqvardsen </t>
+  </si>
+  <si>
+    <t>Filip Eriksson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elliot Grahn </t>
+  </si>
+  <si>
+    <t>Petter Olsson</t>
+  </si>
+  <si>
+    <t>Simon Hildell</t>
+  </si>
+  <si>
+    <t>Elin Odelberg</t>
+  </si>
+  <si>
+    <t>Linus Henning Olsson</t>
+  </si>
+  <si>
+    <t>Gustav Jarbelius</t>
+  </si>
+  <si>
+    <t>Noel Ahlgren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axel Söderbaum </t>
+  </si>
+  <si>
+    <t>Ellen Forsgren</t>
+  </si>
+  <si>
+    <t>Hugo Eurén</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustav Andersson </t>
+  </si>
+  <si>
+    <t>Oscar Brännström</t>
+  </si>
+  <si>
+    <t>Samuel Fjellström</t>
+  </si>
+  <si>
+    <t>Wille Johansson</t>
+  </si>
+  <si>
+    <t>Lisa Bäcklund</t>
+  </si>
+  <si>
+    <t>Johan Sahlström Håkansson</t>
+  </si>
+  <si>
+    <t>Benjamin Carlsson</t>
+  </si>
+  <si>
+    <t>Paul Malkonian</t>
+  </si>
+  <si>
+    <t>Adam Melin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Hannuksela </t>
   </si>
   <si>
     <t>Jacob Moberg</t>
   </si>
   <si>
-    <t xml:space="preserve">Tilde Hallin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emma Gustafsson </t>
-  </si>
-  <si>
-    <t>Johan Sahlström Håkansson</t>
-  </si>
-  <si>
-    <t>Ellen Forsgren</t>
-  </si>
-  <si>
-    <t>Sonja Doll</t>
-  </si>
-  <si>
-    <t>Smilla Hellberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bea Wittfeldt </t>
-  </si>
-  <si>
-    <t>Filip Eriksson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klara Brändström </t>
-  </si>
-  <si>
-    <t>Emil Näslund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Jönsson </t>
-  </si>
-  <si>
-    <t>Simon Hildell</t>
-  </si>
-  <si>
-    <t>Fanny Sandberg</t>
-  </si>
-  <si>
-    <t>Malin Eriksson</t>
-  </si>
-  <si>
-    <t>Hellen Olofsson</t>
-  </si>
-  <si>
-    <t>Hedda Ferm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustav Andersson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ella Aronsson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon Ekblad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elliot Grahn </t>
-  </si>
-  <si>
-    <t>Jakob Gustafsson</t>
-  </si>
-  <si>
     <t>Minna Öhman</t>
   </si>
   <si>
-    <t>Elin Odelberg</t>
-  </si>
-  <si>
-    <t>Benjamin Carlsson</t>
-  </si>
-  <si>
-    <t>Noel Ahlgren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axel Söderbaum </t>
-  </si>
-  <si>
-    <t>Moa Wallberg</t>
-  </si>
-  <si>
-    <t>Hugo Eurén</t>
-  </si>
-  <si>
-    <t>Michael Evans</t>
-  </si>
-  <si>
-    <t>Wille Johansson</t>
-  </si>
-  <si>
-    <t>Samuel Fjellström</t>
-  </si>
-  <si>
-    <t>Gustav Jarbelius</t>
-  </si>
-  <si>
-    <t>Petter Olsson</t>
-  </si>
-  <si>
-    <t>Lisa Bäcklund</t>
+    <t>Simon Mehari</t>
+  </si>
+  <si>
+    <t>Shakira</t>
+  </si>
+  <si>
+    <t>Felicia Fastrup</t>
   </si>
   <si>
     <t>Simon Berglund</t>
   </si>
   <si>
-    <t>Paul Malkonian</t>
-  </si>
-  <si>
-    <t>Adam Melin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mette Stenberg Marqvardsen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar Hannuksela </t>
-  </si>
-  <si>
-    <t>Linus Henning Olsson</t>
-  </si>
-  <si>
-    <t>Felicia Fastrup</t>
-  </si>
-  <si>
-    <t>Oscar Brännström</t>
-  </si>
-  <si>
-    <t>Alva Fahlman</t>
-  </si>
-  <si>
-    <t>Simon Mehari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moa Norsten </t>
-  </si>
-  <si>
-    <t>Shakira</t>
+    <t>Embla Börjesson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freja Senicar </t>
+  </si>
+  <si>
+    <t>Johan Malmberg</t>
+  </si>
+  <si>
+    <t>Clara Forslund</t>
   </si>
   <si>
     <t>Emma Falk</t>
   </si>
   <si>
+    <t xml:space="preserve">Alice Jonsson </t>
+  </si>
+  <si>
+    <t>Annie Åsell</t>
+  </si>
+  <si>
+    <t>Stella Suwe</t>
+  </si>
+  <si>
+    <t>Julia Eriksson</t>
+  </si>
+  <si>
+    <t>Hilda Seleskog</t>
+  </si>
+  <si>
+    <t>Jonna Lindgren och Emilia Eker</t>
+  </si>
+  <si>
+    <t>Albin Arousell</t>
+  </si>
+  <si>
+    <t>Johan Östlund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ludvig Lindberg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hannes sand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel Nordstrand </t>
+  </si>
+  <si>
+    <t>Oskar Ceder</t>
+  </si>
+  <si>
     <t>Andreas Karlsson</t>
   </si>
   <si>
-    <t>Johan Malmberg</t>
+    <t xml:space="preserve">Elsa Markgren </t>
+  </si>
+  <si>
+    <t>Måns Andersson</t>
+  </si>
+  <si>
+    <t>Jakob Gottfridsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emma Olsson Byström </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tove Olsson </t>
+  </si>
+  <si>
+    <t>Edvin Pärson</t>
+  </si>
+  <si>
+    <t>Erik Nordström</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svante Knutsson </t>
+  </si>
+  <si>
+    <t>Marcus Celinder</t>
+  </si>
+  <si>
+    <t>Ebba Albecker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilda Weidenberg </t>
+  </si>
+  <si>
+    <t>Oscar Basile</t>
+  </si>
+  <si>
+    <t>Isak Wännman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Brännström </t>
+  </si>
+  <si>
+    <t>Lina Suneson</t>
+  </si>
+  <si>
+    <t>Andreas Ingebrigsten</t>
+  </si>
+  <si>
+    <t>Jonatan Undén Wiberg</t>
+  </si>
+  <si>
+    <t>Viktor Wallberg</t>
+  </si>
+  <si>
+    <t>Tindra Nåvik</t>
+  </si>
+  <si>
+    <t>Johan meurk</t>
+  </si>
+  <si>
+    <t>Maja Kjellberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elias Bustamante Sävlind </t>
+  </si>
+  <si>
+    <t>David Talanov</t>
+  </si>
+  <si>
+    <t>Sebastian Alrays</t>
+  </si>
+  <si>
+    <t>Teodor Roxberger</t>
+  </si>
+  <si>
+    <t>William Ericsson</t>
   </si>
   <si>
     <t xml:space="preserve">Albin Kårén </t>
   </si>
   <si>
-    <t xml:space="preserve">Freja Senicar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alice Jonsson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elias Bustamante Sävlind </t>
-  </si>
-  <si>
-    <t>Lina Suneson</t>
-  </si>
-  <si>
-    <t>Julia Eriksson</t>
-  </si>
-  <si>
-    <t>Hilda Seleskog</t>
-  </si>
-  <si>
-    <t>Jonna Lindgren och Emilia Eker</t>
-  </si>
-  <si>
-    <t>Edvin Pärson</t>
-  </si>
-  <si>
-    <t>Albin Arousell</t>
-  </si>
-  <si>
-    <t>Johan Östlund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hannes sand </t>
-  </si>
-  <si>
-    <t>Marcus Celinder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel Nordstrand </t>
-  </si>
-  <si>
-    <t>Annie Åsell</t>
-  </si>
-  <si>
-    <t>Stella Suwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elsa Markgren </t>
-  </si>
-  <si>
-    <t>Jonatan Undén Wiberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emma Olsson Byström </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludvig Lindberg </t>
-  </si>
-  <si>
-    <t>Erik Nordström</t>
-  </si>
-  <si>
-    <t>Jakob Gottfridsson</t>
-  </si>
-  <si>
     <t>Hannah Sundin och Nora Johansson</t>
   </si>
   <si>
-    <t>Ebba Albecker</t>
-  </si>
-  <si>
-    <t>David Talanov</t>
-  </si>
-  <si>
-    <t>Isak Wännman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar Brännström </t>
-  </si>
-  <si>
-    <t>Måns Andersson</t>
-  </si>
-  <si>
-    <t>Andreas Ingebrigsten</t>
-  </si>
-  <si>
-    <t>Oskar Ceder</t>
-  </si>
-  <si>
-    <t>Johan meurk</t>
-  </si>
-  <si>
-    <t>Tindra Nåvik</t>
-  </si>
-  <si>
-    <t>Oscar Basile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svante Knutsson </t>
-  </si>
-  <si>
-    <t>Maja Kjellberg</t>
+    <t>Frej Thorendal</t>
+  </si>
+  <si>
+    <t>Neymar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna Sollenberg </t>
   </si>
   <si>
     <t>Térence de la Croix</t>
   </si>
   <si>
-    <t>Sebastian Alrays</t>
-  </si>
-  <si>
-    <t>Teodor Roxberger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tove Olsson </t>
-  </si>
-  <si>
-    <t>William Ericsson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tilda Weidenberg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna Sollenberg </t>
-  </si>
-  <si>
-    <t>Viktor Wallberg</t>
-  </si>
-  <si>
-    <t>Clara Forslund</t>
-  </si>
-  <si>
-    <t>Frej Thorendal</t>
-  </si>
-  <si>
-    <t>Embla Börjesson</t>
-  </si>
-  <si>
-    <t>Neymar</t>
+    <t>Nydalahöjd / Rotgränd</t>
   </si>
   <si>
     <t>Ålidhem</t>
   </si>
   <si>
+    <t>Tvistevägen / Ålidhöjd</t>
+  </si>
+  <si>
     <t>Annat</t>
   </si>
   <si>
-    <t>Tvistevägen / Ålidhöjd</t>
-  </si>
-  <si>
-    <t>Nydalahöjd / Rotgränd</t>
-  </si>
-  <si>
     <t>Berghem</t>
   </si>
   <si>
     <t>Öst på stan</t>
   </si>
   <si>
+    <t>Skärvstensgatan 50</t>
+  </si>
+  <si>
+    <t>Stipendiegränd 8a</t>
+  </si>
+  <si>
+    <t>Tvistevägen 1E</t>
+  </si>
+  <si>
+    <t>Stipendiegränd 4A</t>
+  </si>
+  <si>
     <t>Historiegränd 12a</t>
   </si>
   <si>
+    <t>Tvistevägen 13B lgh 1205</t>
+  </si>
+  <si>
+    <t>Skärvstensgatan 32</t>
+  </si>
+  <si>
+    <t>Sofiehemsvägen 45 lgh 1203</t>
+  </si>
+  <si>
+    <t>Tvistevägen 5C</t>
+  </si>
+  <si>
+    <t>Istidsgatan 42</t>
+  </si>
+  <si>
+    <t>Tvistevägen 9E</t>
+  </si>
+  <si>
+    <t>Kemigränd 5</t>
+  </si>
+  <si>
+    <t>Tvistevägen 9b</t>
+  </si>
+  <si>
+    <t>Axtorpsvägen 38A</t>
+  </si>
+  <si>
+    <t>Istidsgatan 9c</t>
+  </si>
+  <si>
+    <t>Tvistevägen 3b</t>
+  </si>
+  <si>
+    <t>Gammliavägen 8</t>
+  </si>
+  <si>
     <t>Hoppetsgränd 26B</t>
   </si>
   <si>
-    <t>Tvistevägen 1E</t>
+    <t xml:space="preserve">Tvistevägen 9C </t>
+  </si>
+  <si>
+    <t>Pedagoggränd 1c</t>
+  </si>
+  <si>
+    <t>Mariehemsvägen 17B</t>
+  </si>
+  <si>
+    <t>Ålidbacken 1 lgh 1407</t>
+  </si>
+  <si>
+    <t>Strombergs väg 124</t>
+  </si>
+  <si>
+    <t>Orienteringsstigen 6B</t>
+  </si>
+  <si>
+    <t>Tvistevägen 9E lgh 1317</t>
+  </si>
+  <si>
+    <t>Rothoffsvägen 9</t>
+  </si>
+  <si>
+    <t>Bärnstensvägen 10</t>
+  </si>
+  <si>
+    <t>Tvistevägen 1D</t>
+  </si>
+  <si>
+    <t>Biologigränd 33</t>
+  </si>
+  <si>
+    <t>Skidspåret 11</t>
+  </si>
+  <si>
+    <t>Tvistevägen 13B</t>
+  </si>
+  <si>
+    <t>Järnvägsgatan 18 c</t>
+  </si>
+  <si>
+    <t>Pedagoggränd 1B</t>
+  </si>
+  <si>
+    <t>Tvistevägen 7A lgh 1003</t>
+  </si>
+  <si>
+    <t>Ankargränd 9 Öbacka</t>
+  </si>
+  <si>
+    <t>Järnvägsgatan 18c</t>
+  </si>
+  <si>
+    <t>Ålidbacken 1</t>
+  </si>
+  <si>
+    <t>Östra Norrlandsgatan 55</t>
+  </si>
+  <si>
+    <t>Tvistevägen 11 A</t>
+  </si>
+  <si>
+    <t>Historiegränd 6a</t>
+  </si>
+  <si>
+    <t>Träsnidargatan 4b</t>
+  </si>
+  <si>
+    <t>Tvistevägen 11D, 1101</t>
+  </si>
+  <si>
+    <t>Axtorpsvägen 21B</t>
+  </si>
+  <si>
+    <t>Rådhusesplanaden 18D</t>
   </si>
   <si>
     <t>Höjdens Livs</t>
   </si>
   <si>
-    <t>Stipendiegränd 8a</t>
-  </si>
-  <si>
-    <t>Tvistevägen 13B lgh 1205</t>
-  </si>
-  <si>
-    <t>Historiegränd 6a</t>
-  </si>
-  <si>
-    <t>Pedagoggränd 1B</t>
-  </si>
-  <si>
-    <t>Tvistevägen 5C</t>
-  </si>
-  <si>
-    <t>Istidsgatan 42</t>
-  </si>
-  <si>
-    <t>Tvistevägen 9E</t>
-  </si>
-  <si>
-    <t>Orienteringsstigen 6B</t>
-  </si>
-  <si>
-    <t>Kemigränd 5</t>
-  </si>
-  <si>
-    <t>Tvistevägen 9b</t>
-  </si>
-  <si>
-    <t>Istidsgatan 9c</t>
-  </si>
-  <si>
-    <t>Bärnstensvägen 10</t>
-  </si>
-  <si>
-    <t>Tvistevägen 3b</t>
-  </si>
-  <si>
-    <t>Skärvstensgatan 32</t>
-  </si>
-  <si>
-    <t>Sofiehemsvägen 45 lgh 1203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tvistevägen 9C </t>
-  </si>
-  <si>
-    <t>Ankargränd 9 Öbacka</t>
-  </si>
-  <si>
-    <t>Ålidbacken 1 lgh 1407</t>
-  </si>
-  <si>
-    <t>Axtorpsvägen 38A</t>
-  </si>
-  <si>
-    <t>Tvistevägen 9E lgh 1317</t>
-  </si>
-  <si>
-    <t>Mariehemsvägen 17B</t>
-  </si>
-  <si>
     <t>Nydalavägen 16</t>
   </si>
   <si>
-    <t>Tvistevägen 1D</t>
-  </si>
-  <si>
-    <t>Träsnidargatan 4b</t>
-  </si>
-  <si>
-    <t>Tvistevägen 13B</t>
-  </si>
-  <si>
-    <t>Järnvägsgatan 18 c</t>
-  </si>
-  <si>
-    <t>Pedagoggränd 1c</t>
-  </si>
-  <si>
-    <t>Tvistevägen 7A lgh 1003</t>
-  </si>
-  <si>
-    <t>Gammliavägen 8</t>
-  </si>
-  <si>
-    <t>Östra Norrlandsgatan 55</t>
-  </si>
-  <si>
-    <t>Ålidbacken 1</t>
-  </si>
-  <si>
-    <t>Skidspåret 11</t>
-  </si>
-  <si>
-    <t>Rothoffsvägen 9</t>
-  </si>
-  <si>
-    <t>Tvistevägen 11 A</t>
+    <t xml:space="preserve">Fridhemsvägen 1M </t>
+  </si>
+  <si>
+    <t>Östermalmsgatan 44</t>
+  </si>
+  <si>
+    <t>Fysikgränd 19B</t>
   </si>
   <si>
     <t>Rullstensgatan 138</t>
   </si>
   <si>
-    <t>Tvistevägen 11D, 1101</t>
-  </si>
-  <si>
-    <t>Axtorpsvägen 21B</t>
-  </si>
-  <si>
-    <t>Strombergs väg 124</t>
-  </si>
-  <si>
-    <t>Rådhusesplanaden 18D</t>
-  </si>
-  <si>
-    <t>Biologigränd 33</t>
-  </si>
-  <si>
-    <t>Fysikgränd 19B</t>
-  </si>
-  <si>
-    <t>Järnvägsgatan 18c</t>
-  </si>
-  <si>
-    <t>Stipendiegränd 4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fridhemsvägen 1M </t>
-  </si>
-  <si>
-    <t>Skärvstensgatan 50</t>
-  </si>
-  <si>
-    <t>Östermalmsgatan 44</t>
+    <t>0727060379</t>
+  </si>
+  <si>
+    <t>072-5701800</t>
+  </si>
+  <si>
+    <t>0705977543</t>
   </si>
   <si>
     <t>0761353662</t>
   </si>
   <si>
+    <t>+46 70-322 45 44</t>
+  </si>
+  <si>
+    <t>0722084386</t>
+  </si>
+  <si>
+    <t>+46 73-260 10 33</t>
+  </si>
+  <si>
+    <t>0725411020</t>
+  </si>
+  <si>
+    <t>0730748494</t>
+  </si>
+  <si>
+    <t>0727478463</t>
+  </si>
+  <si>
+    <t>0760258189</t>
+  </si>
+  <si>
+    <t>0730777078</t>
+  </si>
+  <si>
+    <t>0730972560</t>
+  </si>
+  <si>
+    <t>0703166189</t>
+  </si>
+  <si>
+    <t>070-786 67 48</t>
+  </si>
+  <si>
     <t>0703990209</t>
   </si>
   <si>
-    <t>072-5701800</t>
+    <t>0727061055</t>
+  </si>
+  <si>
+    <t>0722256329</t>
+  </si>
+  <si>
+    <t>0702433182</t>
+  </si>
+  <si>
+    <t>0722152715</t>
+  </si>
+  <si>
+    <t>0705578896</t>
+  </si>
+  <si>
+    <t>0722493873</t>
+  </si>
+  <si>
+    <t>073-070 05 08</t>
+  </si>
+  <si>
+    <t>0764294175</t>
+  </si>
+  <si>
+    <t>0761391188</t>
+  </si>
+  <si>
+    <t>070-3833654</t>
+  </si>
+  <si>
+    <t>0702291991</t>
+  </si>
+  <si>
+    <t>0723525394</t>
+  </si>
+  <si>
+    <t>0761993599</t>
+  </si>
+  <si>
+    <t>0703680644</t>
+  </si>
+  <si>
+    <t>0723116021</t>
+  </si>
+  <si>
+    <t>072-2474777</t>
+  </si>
+  <si>
+    <t>0707317386</t>
+  </si>
+  <si>
+    <t>0708399178</t>
+  </si>
+  <si>
+    <t>072-203 18 81</t>
+  </si>
+  <si>
+    <t>0761404802</t>
+  </si>
+  <si>
+    <t>0738262470</t>
+  </si>
+  <si>
+    <t>0722722369</t>
+  </si>
+  <si>
+    <t>0736831264</t>
+  </si>
+  <si>
+    <t>0760266922</t>
   </si>
   <si>
     <t>0706594003</t>
   </si>
   <si>
-    <t>+46 70-322 45 44</t>
-  </si>
-  <si>
-    <t>0761404802</t>
-  </si>
-  <si>
-    <t>0703680644</t>
-  </si>
-  <si>
-    <t>+46 73-260 10 33</t>
-  </si>
-  <si>
-    <t>0725411020</t>
-  </si>
-  <si>
-    <t>0730748494</t>
-  </si>
-  <si>
-    <t>0705578896</t>
-  </si>
-  <si>
-    <t>0727478463</t>
-  </si>
-  <si>
-    <t>0760258189</t>
-  </si>
-  <si>
-    <t>0730972560</t>
-  </si>
-  <si>
-    <t>0764294175</t>
-  </si>
-  <si>
-    <t>0703166189</t>
-  </si>
-  <si>
-    <t>0722084386</t>
-  </si>
-  <si>
-    <t>0727061055</t>
-  </si>
-  <si>
-    <t>072-2474777</t>
-  </si>
-  <si>
-    <t>0702433182</t>
-  </si>
-  <si>
-    <t>0730777078</t>
-  </si>
-  <si>
-    <t>0722493873</t>
-  </si>
-  <si>
     <t>0722062677</t>
   </si>
   <si>
-    <t>0761391188</t>
-  </si>
-  <si>
-    <t>0738262470</t>
-  </si>
-  <si>
-    <t>0723525394</t>
-  </si>
-  <si>
-    <t>0761993599</t>
-  </si>
-  <si>
-    <t>0722256329</t>
-  </si>
-  <si>
-    <t>0723116021</t>
-  </si>
-  <si>
-    <t>070-786 67 48</t>
-  </si>
-  <si>
-    <t>0708399178</t>
-  </si>
-  <si>
-    <t>0707317386</t>
-  </si>
-  <si>
-    <t>0702291991</t>
-  </si>
-  <si>
-    <t>073-070 05 08</t>
-  </si>
-  <si>
-    <t>072-203 18 81</t>
+    <t>0761174128</t>
+  </si>
+  <si>
+    <t>0734661555</t>
+  </si>
+  <si>
+    <t>0760353520</t>
   </si>
   <si>
     <t>0722168378</t>
   </si>
   <si>
-    <t>0722722369</t>
-  </si>
-  <si>
-    <t>0736831264</t>
-  </si>
-  <si>
-    <t>0722152715</t>
-  </si>
-  <si>
-    <t>0760266922</t>
-  </si>
-  <si>
-    <t>070-3833654</t>
-  </si>
-  <si>
-    <t>0760353520</t>
-  </si>
-  <si>
-    <t>0705977543</t>
-  </si>
-  <si>
-    <t>0761174128</t>
-  </si>
-  <si>
-    <t>0727060379</t>
-  </si>
-  <si>
-    <t>0734661555</t>
+    <t>Gluten, Skaldjur</t>
+  </si>
+  <si>
+    <t>Vegetarian, Nötter</t>
+  </si>
+  <si>
+    <t>Laktos</t>
+  </si>
+  <si>
+    <t>Vegetarian, Laktos</t>
+  </si>
+  <si>
+    <t>Vegetarian, Övrigt</t>
+  </si>
+  <si>
+    <t>Fläsk</t>
   </si>
   <si>
     <t>Gluten, Mjölkprotein</t>
   </si>
   <si>
-    <t>Gluten, Skaldjur</t>
-  </si>
-  <si>
-    <t>Vegetarian, Nötter</t>
-  </si>
-  <si>
-    <t>Vegetarian, Laktos</t>
-  </si>
-  <si>
-    <t>Laktos</t>
-  </si>
-  <si>
-    <t>Vegetarian, Övrigt</t>
-  </si>
-  <si>
-    <t>Fläsk</t>
+    <t>Nötter</t>
   </si>
   <si>
     <t>Vegan</t>
   </si>
   <si>
     <t>Vegetarian</t>
-  </si>
-  <si>
-    <t>Nötter</t>
   </si>
   <si>
     <t>Laktos, Gluten</t>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1">
       <c r="A2" s="3">
-        <v>45401.58418335648</v>
+        <v>45401.51642609954</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1457,10 +1457,13 @@
       <c r="I2" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1">
       <c r="A3" s="3">
-        <v>45401.52200711805</v>
+        <v>45401.53165923611</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -1483,8 +1486,14 @@
       <c r="H3" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>272</v>
+      <c r="I3" s="2">
+        <v>707577228</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1">
@@ -1495,7 +1504,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>67</v>
@@ -1513,18 +1522,18 @@
         <v>223</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1">
       <c r="A5" s="3">
-        <v>45405.54942520833</v>
+        <v>45401.51675309028</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>68</v>
@@ -1536,27 +1545,27 @@
         <v>168</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>224</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>317</v>
+        <v>273</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1">
       <c r="A6" s="3">
-        <v>45401.53165923611</v>
+        <v>45401.58418335648</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>69</v>
@@ -1568,19 +1577,13 @@
         <v>169</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="I6" s="4">
-        <v>707577228</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>324</v>
+      <c r="I6" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1">
@@ -1591,7 +1594,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>70</v>
@@ -1614,13 +1617,13 @@
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1">
       <c r="A8" s="3">
-        <v>45401.5274055324</v>
+        <v>45402.80514116898</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>71</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1">
       <c r="A9" s="3">
-        <v>45405.76029744213</v>
+        <v>45401.51952681713</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -1661,13 +1664,13 @@
         <v>172</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>277</v>
+      <c r="I9" s="2">
+        <v>725705030</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1">
@@ -1678,7 +1681,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>73</v>
@@ -1696,36 +1699,42 @@
         <v>229</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1">
       <c r="A11" s="3">
-        <v>45401.5274055324</v>
+        <v>45401.53165923611</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>276</v>
+        <v>222</v>
+      </c>
+      <c r="I11" s="4">
+        <v>707577228</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1">
@@ -1736,7 +1745,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>74</v>
@@ -1748,16 +1757,16 @@
         <v>174</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>230</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1">
@@ -1768,7 +1777,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>75</v>
@@ -1786,18 +1795,18 @@
         <v>231</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1">
       <c r="A14" s="3">
-        <v>45404.6254305787</v>
+        <v>45401.52404115741</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -1815,42 +1824,48 @@
         <v>176</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>232</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1">
       <c r="A15" s="3">
-        <v>45401.52404115741</v>
+        <v>45401.53165923611</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>282</v>
+        <v>222</v>
+      </c>
+      <c r="I15" s="2">
+        <v>707577228</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1">
@@ -1858,92 +1873,92 @@
         <v>45404.55498010416</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1">
       <c r="A17" s="3">
-        <v>45405.54009958333</v>
+        <v>45401.68065373843</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1">
       <c r="A18" s="3">
-        <v>45405.53807153935</v>
+        <v>45405.54009958333</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1">
@@ -1951,92 +1966,95 @@
         <v>45404.55741021991</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>217</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1">
       <c r="A20" s="3">
-        <v>45402.80514116898</v>
+        <v>45401.46487756944</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1">
       <c r="A21" s="3">
-        <v>45401.51952681713</v>
+        <v>45401.52200711805</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I21" s="2">
-        <v>725705030</v>
+        <v>238</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1">
@@ -2044,65 +2062,65 @@
         <v>45401.5153021875</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1">
       <c r="A23" s="3">
-        <v>45401.5274055324</v>
+        <v>45405.50267166667</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1">
       <c r="A24" s="3">
-        <v>45401.52301483796</v>
+        <v>45401.57997428241</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>33</v>
@@ -2120,13 +2138,13 @@
         <v>185</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>289</v>
+      <c r="I24" s="4">
+        <v>767702666</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1">
@@ -2137,7 +2155,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>86</v>
@@ -2155,12 +2173,12 @@
         <v>242</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="2" customFormat="1">
       <c r="A26" s="3">
-        <v>45401.68065373843</v>
+        <v>45401.6894033912</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
@@ -2184,36 +2202,36 @@
         <v>243</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="2" customFormat="1">
       <c r="A27" s="3">
-        <v>45401.52404115741</v>
+        <v>45404.6254305787</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="2" customFormat="1">
@@ -2221,25 +2239,25 @@
         <v>45404.59544350694</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>292</v>
@@ -2250,60 +2268,63 @@
     </row>
     <row r="29" spans="1:13" s="4" customFormat="1">
       <c r="A29" s="3">
-        <v>45401.57997428241</v>
+        <v>45401.58876386574</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I29" s="4">
-        <v>767702666</v>
+        <v>246</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="4" customFormat="1">
       <c r="A30" s="3">
-        <v>45404.50070788195</v>
+        <v>45405.53807153935</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="4" customFormat="1">
@@ -2311,101 +2332,92 @@
         <v>45405.50682806713</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>217</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>320</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="2" customFormat="1">
       <c r="A32" s="3">
-        <v>45401.53165923611</v>
+        <v>45404.77256680556</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I32" s="2">
-        <v>707577228</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>324</v>
+        <v>249</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="2" customFormat="1">
       <c r="A33" s="3">
-        <v>45402.99288144676</v>
+        <v>45401.52068289352</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="2" customFormat="1">
@@ -2413,28 +2425,28 @@
         <v>45405.82667438658</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1">
@@ -2442,57 +2454,57 @@
         <v>45401.96803204861</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>220</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1">
       <c r="A36" s="3">
-        <v>45405.50267166667</v>
+        <v>45405.76029744213</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1">
@@ -2500,89 +2512,86 @@
         <v>45404.63104802083</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>217</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="2" customFormat="1">
       <c r="A38" s="3">
-        <v>45401.46487756944</v>
+        <v>45401.52301483796</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>220</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="2" customFormat="1">
       <c r="A39" s="3">
-        <v>45401.51335753472</v>
+        <v>45403.65552346065</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="2" customFormat="1">
@@ -2590,89 +2599,86 @@
         <v>45404.98935105324</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="4" customFormat="1">
       <c r="A41" s="3">
-        <v>45401.52068289352</v>
+        <v>45401.52404115741</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="4" customFormat="1">
       <c r="A42" s="3">
-        <v>45401.58876386574</v>
+        <v>45401.51335753472</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1">
@@ -2680,31 +2686,31 @@
         <v>45405.71172773148</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>217</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>305</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>330</v>
@@ -2712,28 +2718,28 @@
     </row>
     <row r="44" spans="1:13" s="2" customFormat="1">
       <c r="A44" s="3">
-        <v>45401.46045436343</v>
+        <v>45401.5274055324</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>306</v>
@@ -2741,37 +2747,34 @@
     </row>
     <row r="45" spans="1:13" s="2" customFormat="1">
       <c r="A45" s="3">
-        <v>45401.53165923611</v>
+        <v>45402.99288144676</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I45" s="2">
-        <v>707577228</v>
+        <v>261</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="2" customFormat="1">
@@ -2779,36 +2782,36 @@
         <v>45405.8129921412</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="4" customFormat="1">
       <c r="A47" s="3">
-        <v>45406.52900920139</v>
+        <v>45401.5274055324</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>52</v>
@@ -2817,54 +2820,54 @@
         <v>63</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="4" customFormat="1">
       <c r="A48" s="3">
-        <v>45401.6894033912</v>
+        <v>45406.52900920139</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>219</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>309</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="4" customFormat="1">
@@ -2872,25 +2875,25 @@
         <v>45406.78192795139</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>310</v>
@@ -2898,63 +2901,63 @@
     </row>
     <row r="50" spans="1:12" s="2" customFormat="1">
       <c r="A50" s="3">
-        <v>45404.77256680556</v>
+        <v>45405.54942520833</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>215</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="J50" s="2" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="51" spans="1:12" s="2" customFormat="1">
       <c r="A51" s="3">
-        <v>45405.8648559838</v>
+        <v>45401.5274055324</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="2" customFormat="1">
@@ -2962,89 +2965,89 @@
         <v>45405.82667438658</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="4" customFormat="1">
       <c r="A53" s="3">
-        <v>45403.65552346065</v>
+        <v>45401.51675309028</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>297</v>
+        <v>273</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="4" customFormat="1">
       <c r="A54" s="3">
-        <v>45401.51675309028</v>
+        <v>45404.50070788195</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="4" customFormat="1">
@@ -3052,89 +3055,89 @@
         <v>45401.52275289352</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>219</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="2" customFormat="1">
       <c r="A56" s="3">
-        <v>45401.51642609954</v>
+        <v>45401.58300694444</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="2" customFormat="1">
       <c r="A57" s="3">
-        <v>45401.58300694444</v>
+        <v>45405.8648559838</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>326</v>
@@ -3142,34 +3145,31 @@
     </row>
     <row r="58" spans="1:12" s="2" customFormat="1">
       <c r="A58" s="3">
-        <v>45401.51675309028</v>
+        <v>45401.46045436343</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>215</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
